--- a/public/application/files/jasper/templates/flujoefectivomensual2B.xlsx
+++ b/public/application/files/jasper/templates/flujoefectivomensual2B.xlsx
@@ -105,7 +105,6 @@
         <sz val="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>}</t>
     </r>
@@ -273,17 +272,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -297,22 +287,15 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -320,7 +303,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -663,7 +663,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -672,138 +672,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.75" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="29.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" ht="28">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" ht="22.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="18">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" s="8" customFormat="1">
-      <c r="A7" s="5" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" s="5" customFormat="1">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>25</v>
       </c>
     </row>
@@ -818,7 +818,6 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/public/application/files/jasper/templates/flujoefectivomensual2B.xlsx
+++ b/public/application/files/jasper/templates/flujoefectivomensual2B.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-23780" yWindow="160" windowWidth="19460" windowHeight="17860" tabRatio="198"/>
+    <workbookView xWindow="2140" yWindow="500" windowWidth="19460" windowHeight="17860" tabRatio="198"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>{compania:nombre}</t>
   </si>
@@ -56,27 +56,9 @@
     <t>Total</t>
   </si>
   <si>
-    <t>{categoria:nombre}</t>
-  </si>
-  <si>
-    <t>{categoria:banco1}</t>
-  </si>
-  <si>
-    <t>{categoria:banco2}</t>
-  </si>
-  <si>
-    <t>{categoria:total}</t>
-  </si>
-  <si>
     <t>TOTALES</t>
   </si>
   <si>
-    <t>{total:banco1}</t>
-  </si>
-  <si>
-    <t>{total:banco2}</t>
-  </si>
-  <si>
     <t>{subcat:nombre}</t>
   </si>
   <si>
@@ -89,34 +71,46 @@
     <t>{subcat:total}</t>
   </si>
   <si>
-    <r>
-      <t>{categoria:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>pct</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>{total:total}</t>
-  </si>
-  <si>
-    <t>{total:pct}</t>
-  </si>
-  <si>
     <t>{subcat:pct}</t>
+  </si>
+  <si>
+    <t>{ingreso:nombre}</t>
+  </si>
+  <si>
+    <t>{ingreso:banco1}</t>
+  </si>
+  <si>
+    <t>{ingreso:banco2}</t>
+  </si>
+  <si>
+    <t>{ingreso:total}</t>
+  </si>
+  <si>
+    <t>{ingreso:pct}</t>
+  </si>
+  <si>
+    <t>{ingresot:banco1}</t>
+  </si>
+  <si>
+    <t>{ingresot:banco2}</t>
+  </si>
+  <si>
+    <t>{ingresot:total}</t>
+  </si>
+  <si>
+    <t>{ingresot:pct}</t>
+  </si>
+  <si>
+    <t>{subt:banco1}</t>
+  </si>
+  <si>
+    <t>{subt:banco2}</t>
+  </si>
+  <si>
+    <t>{subt:total}</t>
+  </si>
+  <si>
+    <t>{subt:pct}</t>
   </si>
 </sst>
 </file>
@@ -272,7 +266,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -294,6 +288,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -308,18 +305,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -663,7 +648,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:E8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -672,44 +657,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.75" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" ht="29.75" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="28">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="22.25" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" ht="18">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
@@ -721,11 +706,11 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1">
       <c r="A7" s="2" t="s">
@@ -746,19 +731,19 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -768,43 +753,60 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="14" spans="1:5">
       <c r="A14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="E14" s="13" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="10" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>25</v>
+        <v>11</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
